--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12600</v>
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3800</v>
       </c>
       <c r="H8" s="3">
         <v>3800</v>
       </c>
       <c r="I8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>1800</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,15 +1055,15 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>-400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,19 +1097,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
@@ -1093,45 +1119,48 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9200</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3000</v>
       </c>
       <c r="H18" s="3">
         <v>3000</v>
@@ -1140,28 +1169,31 @@
         <v>3000</v>
       </c>
       <c r="J18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K18" s="3">
         <v>2800</v>
       </c>
       <c r="L18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1500</v>
       </c>
       <c r="P18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,22 +1210,23 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-2000</v>
@@ -1205,25 +1238,28 @@
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3700</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1100</v>
       </c>
       <c r="H23" s="3">
         <v>1100</v>
       </c>
       <c r="I23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,22 +1490,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>800</v>
       </c>
       <c r="H26" s="3">
         <v>800</v>
@@ -1466,13 +1517,13 @@
         <v>800</v>
       </c>
       <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -1481,27 +1532,30 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>800</v>
       </c>
       <c r="H27" s="3">
         <v>800</v>
@@ -1510,13 +1564,13 @@
         <v>800</v>
       </c>
       <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
@@ -1525,13 +1579,16 @@
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,8 +1660,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,22 +1772,25 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>2000</v>
@@ -1733,39 +1802,42 @@
         <v>2000</v>
       </c>
       <c r="K32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>800</v>
       </c>
       <c r="H33" s="3">
         <v>800</v>
@@ -1774,13 +1846,13 @@
         <v>800</v>
       </c>
       <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
@@ -1789,13 +1861,16 @@
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,22 +1913,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>800</v>
       </c>
       <c r="H35" s="3">
         <v>800</v>
@@ -1862,13 +1940,13 @@
         <v>800</v>
       </c>
       <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
@@ -1877,62 +1955,68 @@
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,57 +2052,61 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>20200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>120400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>162500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>17800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2025,12 +2114,12 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>16100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2049,14 +2138,17 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>8300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>8700</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2289,21 +2396,21 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>62300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2313,19 +2420,22 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
         <v>2300</v>
@@ -2334,23 +2444,23 @@
         <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2400</v>
       </c>
       <c r="I49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J49" s="3">
         <v>66100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -2465,21 +2584,21 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2489,14 +2608,17 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>352600</v>
+      </c>
+      <c r="E54" s="3">
         <v>360000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>368700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>353300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>345000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>354000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2481700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2299400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>333700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>227900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>223900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>219500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,13 +2934,16 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2810,20 +2952,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>75200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3169,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>314900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
@@ -3029,21 +3186,21 @@
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>311200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>2195900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2040900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3053,14 +3210,17 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>199700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3423,16 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>27500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -3267,12 +3440,12 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>24500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3291,14 +3464,17 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>21900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E76" s="3">
         <v>36800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>285800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>258500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,71 +3705,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>800</v>
       </c>
       <c r="H81" s="3">
         <v>800</v>
@@ -3590,13 +3784,13 @@
         <v>800</v>
       </c>
       <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
@@ -3605,13 +3799,16 @@
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,37 +747,37 @@
         <v>4100</v>
       </c>
       <c r="E8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3800</v>
       </c>
       <c r="I8" s="3">
         <v>3800</v>
       </c>
       <c r="J8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1800</v>
       </c>
       <c r="P8" s="3">
         <v>1800</v>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,15 +1081,15 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>-400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,22 +1124,23 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
@@ -1122,48 +1149,51 @@
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3000</v>
       </c>
       <c r="I18" s="3">
         <v>3000</v>
@@ -1172,28 +1202,31 @@
         <v>3000</v>
       </c>
       <c r="K18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L18" s="3">
         <v>2800</v>
       </c>
       <c r="M18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1500</v>
       </c>
       <c r="Q18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,25 +1244,26 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
@@ -1241,25 +1275,28 @@
         <v>-2000</v>
       </c>
       <c r="L20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1404,49 @@
         <v>1100</v>
       </c>
       <c r="E23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1100</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1411,43 +1457,46 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,16 +1554,16 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>800</v>
       </c>
       <c r="I26" s="3">
         <v>800</v>
@@ -1520,13 +1572,13 @@
         <v>800</v>
       </c>
       <c r="K26" s="3">
+        <v>800</v>
+      </c>
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -1535,13 +1587,16 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,16 +1604,16 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>800</v>
       </c>
       <c r="I27" s="3">
         <v>800</v>
@@ -1567,13 +1622,13 @@
         <v>800</v>
       </c>
       <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -1582,13 +1637,16 @@
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +1724,8 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,25 +1842,28 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
       </c>
       <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
@@ -1805,25 +1875,28 @@
         <v>2000</v>
       </c>
       <c r="L32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,16 +1904,16 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>800</v>
       </c>
       <c r="I33" s="3">
         <v>800</v>
@@ -1849,13 +1922,13 @@
         <v>800</v>
       </c>
       <c r="K33" s="3">
+        <v>800</v>
+      </c>
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -1864,13 +1937,16 @@
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,16 +2004,16 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>800</v>
       </c>
       <c r="I35" s="3">
         <v>800</v>
@@ -1943,13 +2022,13 @@
         <v>800</v>
       </c>
       <c r="K35" s="3">
+        <v>800</v>
+      </c>
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -1958,65 +2037,71 @@
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,76 +2139,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>162500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>17800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>16100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2141,14 +2231,17 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>8300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>62300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2423,14 +2531,17 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,7 +2549,7 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2300</v>
@@ -2447,23 +2558,23 @@
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2400</v>
       </c>
       <c r="J49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K49" s="3">
         <v>66100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,14 +2731,17 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>377200</v>
+      </c>
+      <c r="E54" s="3">
         <v>352600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>360000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>368700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>353300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>345000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2481700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2299400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>333700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>227900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>223900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>219500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,17 +2977,20 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2869,8 +3006,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,17 +3077,20 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2955,20 +3098,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>75200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>314900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>311200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>2195900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2040900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3213,14 +3371,17 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>199700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,29 +3597,32 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>27500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>24500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3467,14 +3641,17 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>21900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E76" s="3">
         <v>37700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>285800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>258500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,16 +3964,16 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>800</v>
       </c>
       <c r="I81" s="3">
         <v>800</v>
@@ -3787,13 +3982,13 @@
         <v>800</v>
       </c>
       <c r="K81" s="3">
+        <v>800</v>
+      </c>
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -3802,13 +3997,16 @@
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
         <v>4100</v>
       </c>
       <c r="F8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3800</v>
       </c>
       <c r="J8" s="3">
         <v>3800</v>
       </c>
       <c r="K8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1800</v>
       </c>
       <c r="Q8" s="3">
         <v>1800</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,15 +1107,15 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>-400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,25 +1151,26 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
@@ -1152,51 +1179,54 @@
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3000</v>
       </c>
       <c r="J18" s="3">
         <v>3000</v>
@@ -1205,28 +1235,31 @@
         <v>3000</v>
       </c>
       <c r="L18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M18" s="3">
         <v>2800</v>
       </c>
       <c r="N18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1500</v>
       </c>
       <c r="R18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,19 +1288,19 @@
         <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
@@ -1278,25 +1312,28 @@
         <v>-2000</v>
       </c>
       <c r="M20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,63 +1435,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
         <v>1100</v>
       </c>
       <c r="F23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1100</v>
       </c>
       <c r="J23" s="3">
         <v>1100</v>
       </c>
       <c r="K23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1460,43 +1506,46 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,28 +1594,31 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>800</v>
       </c>
       <c r="J26" s="3">
         <v>800</v>
@@ -1575,13 +1627,13 @@
         <v>800</v>
       </c>
       <c r="L26" s="3">
+        <v>800</v>
+      </c>
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -1590,33 +1642,36 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>800</v>
       </c>
       <c r="J27" s="3">
         <v>800</v>
@@ -1625,13 +1680,13 @@
         <v>800</v>
       </c>
       <c r="L27" s="3">
+        <v>800</v>
+      </c>
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -1640,13 +1695,16 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,8 +1788,8 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,19 +1924,19 @@
         <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
       </c>
       <c r="G32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
@@ -1878,45 +1948,48 @@
         <v>2000</v>
       </c>
       <c r="M32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>800</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
@@ -1925,13 +1998,13 @@
         <v>800</v>
       </c>
       <c r="L33" s="3">
+        <v>800</v>
+      </c>
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
@@ -1940,13 +2013,16 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,28 +2071,31 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>800</v>
       </c>
       <c r="J35" s="3">
         <v>800</v>
@@ -2025,13 +2104,13 @@
         <v>800</v>
       </c>
       <c r="L35" s="3">
+        <v>800</v>
+      </c>
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
@@ -2040,68 +2119,74 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,82 +2226,86 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E41" s="3">
         <v>42200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>162500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>17800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>16100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2234,14 +2324,17 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>8300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>62300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2534,14 +2642,17 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,7 +2663,7 @@
         <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
@@ -2561,23 +2672,23 @@
         <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2400</v>
       </c>
       <c r="K49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L49" s="3">
         <v>66100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>414800</v>
+      </c>
+      <c r="E54" s="3">
         <v>377200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>352600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>360000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>368700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>353300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>345000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>354000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2481700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2299400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>356000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>333700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>227900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>223900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>219500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,20 +3114,23 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3009,8 +3146,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3101,20 +3244,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>75200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>314900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>311200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>2195900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2040900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3374,14 +3532,17 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>199700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,32 +3771,35 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>27500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>24500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3644,14 +3818,17 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>21900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E76" s="3">
         <v>40500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>285800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>258500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,83 +4089,89 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>800</v>
       </c>
       <c r="J81" s="3">
         <v>800</v>
@@ -3985,13 +4180,13 @@
         <v>800</v>
       </c>
       <c r="L81" s="3">
+        <v>800</v>
+      </c>
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -4000,13 +4195,16 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4100</v>
       </c>
       <c r="F8" s="3">
         <v>4100</v>
       </c>
       <c r="G8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3800</v>
       </c>
       <c r="K8" s="3">
         <v>3800</v>
       </c>
       <c r="L8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1800</v>
       </c>
       <c r="R8" s="3">
         <v>1800</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,15 +1133,15 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>-400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,19 +1188,19 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
@@ -1182,54 +1209,57 @@
         <v>800</v>
       </c>
       <c r="L17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3000</v>
       </c>
       <c r="K18" s="3">
         <v>3000</v>
@@ -1238,28 +1268,31 @@
         <v>3000</v>
       </c>
       <c r="M18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N18" s="3">
         <v>2800</v>
       </c>
       <c r="O18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1500</v>
       </c>
       <c r="S18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,31 +1312,32 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
         <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
         <v>-1900</v>
       </c>
       <c r="H20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-2000</v>
@@ -1315,25 +1349,28 @@
         <v>-2000</v>
       </c>
       <c r="N20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>1400</v>
       </c>
       <c r="E23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F23" s="3">
         <v>1100</v>
       </c>
       <c r="G23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1100</v>
       </c>
       <c r="K23" s="3">
         <v>1100</v>
       </c>
       <c r="L23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1546,7 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1509,43 +1555,46 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,22 +1658,22 @@
         <v>1000</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="3">
         <v>800</v>
       </c>
       <c r="G26" s="3">
+        <v>800</v>
+      </c>
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>800</v>
       </c>
       <c r="K26" s="3">
         <v>800</v>
@@ -1630,13 +1682,13 @@
         <v>800</v>
       </c>
       <c r="M26" s="3">
+        <v>800</v>
+      </c>
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -1645,13 +1697,16 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,22 +1714,22 @@
         <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>800</v>
       </c>
       <c r="G27" s="3">
+        <v>800</v>
+      </c>
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>800</v>
       </c>
       <c r="K27" s="3">
         <v>800</v>
@@ -1683,13 +1738,13 @@
         <v>800</v>
       </c>
       <c r="M27" s="3">
+        <v>800</v>
+      </c>
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -1698,13 +1753,16 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,8 +1852,8 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,31 +1982,34 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
         <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
         <v>1900</v>
       </c>
       <c r="H32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>2000</v>
@@ -1951,25 +2021,28 @@
         <v>2000</v>
       </c>
       <c r="N32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,22 +2050,22 @@
         <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>800</v>
       </c>
       <c r="G33" s="3">
+        <v>800</v>
+      </c>
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>800</v>
       </c>
       <c r="K33" s="3">
         <v>800</v>
@@ -2001,13 +2074,13 @@
         <v>800</v>
       </c>
       <c r="M33" s="3">
+        <v>800</v>
+      </c>
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2016,13 +2089,16 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,22 +2162,22 @@
         <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="3">
         <v>800</v>
       </c>
       <c r="G35" s="3">
+        <v>800</v>
+      </c>
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>800</v>
       </c>
       <c r="K35" s="3">
         <v>800</v>
@@ -2107,13 +2186,13 @@
         <v>800</v>
       </c>
       <c r="M35" s="3">
+        <v>800</v>
+      </c>
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2122,71 +2201,77 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E41" s="3">
         <v>57300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,24 +2381,24 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>17800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>16100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2327,14 +2417,17 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>8300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,33 +2717,33 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>62300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2645,19 +2753,22 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
@@ -2666,7 +2777,7 @@
         <v>2200</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H49" s="3">
         <v>2300</v>
@@ -2675,23 +2786,23 @@
         <v>2300</v>
       </c>
       <c r="J49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
       </c>
       <c r="L49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M49" s="3">
         <v>66100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,33 +2941,33 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>402200</v>
+      </c>
+      <c r="E54" s="3">
         <v>414800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>377200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>352600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>360000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>368700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>353300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>345000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2481700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2299400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>333700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>227900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>223900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>219500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,12 +3265,12 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3149,8 +3286,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3247,20 +3390,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>75200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3499,33 +3657,33 @@
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>314900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>311200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2195900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2040900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3535,14 +3693,17 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>199700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,24 +3959,24 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>27500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>24500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3821,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>21900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E76" s="3">
         <v>41700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>285800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>258500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,22 +4354,22 @@
         <v>1000</v>
       </c>
       <c r="E81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="3">
         <v>800</v>
       </c>
       <c r="G81" s="3">
+        <v>800</v>
+      </c>
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>800</v>
       </c>
       <c r="K81" s="3">
         <v>800</v>
@@ -4183,13 +4378,13 @@
         <v>800</v>
       </c>
       <c r="M81" s="3">
+        <v>800</v>
+      </c>
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -4198,13 +4393,16 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,139 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4100</v>
       </c>
       <c r="G8" s="3">
         <v>4100</v>
       </c>
       <c r="H8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3800</v>
       </c>
       <c r="L8" s="3">
         <v>3800</v>
       </c>
       <c r="M8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1800</v>
       </c>
       <c r="S8" s="3">
         <v>1800</v>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,15 +1158,15 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>-400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,31 +1204,32 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
@@ -1212,57 +1238,60 @@
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3000</v>
       </c>
       <c r="L18" s="3">
         <v>3000</v>
@@ -1271,28 +1300,31 @@
         <v>3000</v>
       </c>
       <c r="N18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="O18" s="3">
         <v>2800</v>
       </c>
       <c r="P18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,34 +1345,35 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-1900</v>
       </c>
       <c r="I20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2000</v>
       </c>
       <c r="L20" s="3">
         <v>-2000</v>
@@ -1352,25 +1385,28 @@
         <v>-2000</v>
       </c>
       <c r="O20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,75 +1520,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
         <v>1400</v>
       </c>
       <c r="F23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G23" s="3">
         <v>1100</v>
       </c>
       <c r="H23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1100</v>
       </c>
       <c r="L23" s="3">
         <v>1100</v>
       </c>
       <c r="M23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1558,43 +1603,46 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,22 +1712,22 @@
         <v>1000</v>
       </c>
       <c r="F26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="3">
         <v>800</v>
       </c>
       <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>800</v>
       </c>
       <c r="L26" s="3">
         <v>800</v>
@@ -1685,13 +1736,13 @@
         <v>800</v>
       </c>
       <c r="N26" s="3">
+        <v>800</v>
+      </c>
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -1700,13 +1751,16 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,22 +1771,22 @@
         <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="3">
         <v>800</v>
       </c>
       <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>800</v>
       </c>
       <c r="L27" s="3">
         <v>800</v>
@@ -1741,13 +1795,13 @@
         <v>800</v>
       </c>
       <c r="N27" s="3">
+        <v>800</v>
+      </c>
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
@@ -1756,13 +1810,16 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,8 +1915,8 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,34 +2051,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>1900</v>
       </c>
       <c r="I32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2000</v>
       </c>
       <c r="L32" s="3">
         <v>2000</v>
@@ -2024,25 +2093,28 @@
         <v>2000</v>
       </c>
       <c r="O32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,22 +2125,22 @@
         <v>1000</v>
       </c>
       <c r="F33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="3">
         <v>800</v>
       </c>
       <c r="H33" s="3">
+        <v>800</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>800</v>
       </c>
       <c r="L33" s="3">
         <v>800</v>
@@ -2077,13 +2149,13 @@
         <v>800</v>
       </c>
       <c r="N33" s="3">
+        <v>800</v>
+      </c>
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
@@ -2092,13 +2164,16 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,22 +2243,22 @@
         <v>1000</v>
       </c>
       <c r="F35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="3">
         <v>800</v>
       </c>
       <c r="H35" s="3">
+        <v>800</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>800</v>
       </c>
       <c r="L35" s="3">
         <v>800</v>
@@ -2189,13 +2267,13 @@
         <v>800</v>
       </c>
       <c r="N35" s="3">
+        <v>800</v>
+      </c>
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
@@ -2204,74 +2282,80 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E41" s="3">
         <v>60900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,24 +2473,24 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>17800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>16100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2420,14 +2509,17 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>8300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2720,33 +2827,33 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>62300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2756,14 +2863,17 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>6700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2881,7 @@
         <v>2100</v>
       </c>
       <c r="E49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
@@ -2780,7 +2890,7 @@
         <v>2200</v>
       </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="3">
         <v>2300</v>
@@ -2789,23 +2899,23 @@
         <v>2300</v>
       </c>
       <c r="K49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
       </c>
       <c r="M49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N49" s="3">
         <v>66100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2944,33 +3063,33 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2980,14 +3099,17 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>406300</v>
+      </c>
+      <c r="E54" s="3">
         <v>402200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>377200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>352600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>360000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>368700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>353300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>345000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2481700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2299400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>333700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>227900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>223900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>219500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3268,12 +3404,12 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3289,8 +3425,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3393,20 +3535,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>75200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3660,33 +3817,33 @@
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>314900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>311200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>2195900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2040900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3696,14 +3853,17 @@
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>199700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3962,24 +4135,24 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>27500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>24500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3998,14 +4171,17 @@
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>21900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E76" s="3">
         <v>42700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>285800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>258500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,22 +4551,22 @@
         <v>1000</v>
       </c>
       <c r="F81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="3">
         <v>800</v>
       </c>
       <c r="H81" s="3">
+        <v>800</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>800</v>
       </c>
       <c r="L81" s="3">
         <v>800</v>
@@ -4381,13 +4575,13 @@
         <v>800</v>
       </c>
       <c r="N81" s="3">
+        <v>800</v>
+      </c>
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
@@ -4396,13 +4590,16 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4100</v>
       </c>
       <c r="H8" s="3">
         <v>4100</v>
       </c>
       <c r="I8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3800</v>
       </c>
       <c r="M8" s="3">
         <v>3800</v>
       </c>
       <c r="N8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1800</v>
       </c>
       <c r="T8" s="3">
         <v>1800</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,15 +1184,15 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>-400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,34 +1231,35 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
@@ -1241,60 +1268,63 @@
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3000</v>
       </c>
       <c r="M18" s="3">
         <v>3000</v>
@@ -1303,28 +1333,31 @@
         <v>3000</v>
       </c>
       <c r="O18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="P18" s="3">
         <v>2800</v>
       </c>
       <c r="Q18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1500</v>
       </c>
       <c r="U18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,37 +1379,38 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
       </c>
       <c r="G20" s="3">
         <v>-2000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-1900</v>
       </c>
       <c r="J20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2000</v>
       </c>
       <c r="M20" s="3">
         <v>-2000</v>
@@ -1388,25 +1422,28 @@
         <v>-2000</v>
       </c>
       <c r="P20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,81 +1563,87 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1400</v>
       </c>
       <c r="F23" s="3">
         <v>1400</v>
       </c>
       <c r="G23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="H23" s="3">
         <v>1100</v>
       </c>
       <c r="I23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1100</v>
       </c>
       <c r="M23" s="3">
         <v>1100</v>
       </c>
       <c r="N23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1606,43 +1652,46 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,13 +1749,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
@@ -1715,22 +1767,22 @@
         <v>1000</v>
       </c>
       <c r="G26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="3">
         <v>800</v>
       </c>
       <c r="I26" s="3">
+        <v>800</v>
+      </c>
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>800</v>
       </c>
       <c r="M26" s="3">
         <v>800</v>
@@ -1739,13 +1791,13 @@
         <v>800</v>
       </c>
       <c r="O26" s="3">
+        <v>800</v>
+      </c>
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
@@ -1754,18 +1806,21 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
@@ -1774,22 +1829,22 @@
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="3">
         <v>800</v>
       </c>
       <c r="I27" s="3">
+        <v>800</v>
+      </c>
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>800</v>
       </c>
       <c r="M27" s="3">
         <v>800</v>
@@ -1798,13 +1853,13 @@
         <v>800</v>
       </c>
       <c r="O27" s="3">
+        <v>800</v>
+      </c>
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
@@ -1813,13 +1868,16 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1918,8 +1979,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,37 +2121,40 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
       </c>
       <c r="G32" s="3">
         <v>2000</v>
       </c>
       <c r="H32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>1900</v>
       </c>
       <c r="J32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2000</v>
       </c>
       <c r="M32" s="3">
         <v>2000</v>
@@ -2096,30 +2166,33 @@
         <v>2000</v>
       </c>
       <c r="P32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
@@ -2128,22 +2201,22 @@
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="3">
         <v>800</v>
       </c>
       <c r="I33" s="3">
+        <v>800</v>
+      </c>
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>800</v>
       </c>
       <c r="M33" s="3">
         <v>800</v>
@@ -2152,13 +2225,13 @@
         <v>800</v>
       </c>
       <c r="O33" s="3">
+        <v>800</v>
+      </c>
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
@@ -2167,13 +2240,16 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
@@ -2246,22 +2325,22 @@
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="3">
         <v>800</v>
       </c>
       <c r="I35" s="3">
+        <v>800</v>
+      </c>
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>800</v>
       </c>
       <c r="M35" s="3">
         <v>800</v>
@@ -2270,13 +2349,13 @@
         <v>800</v>
       </c>
       <c r="O35" s="3">
+        <v>800</v>
+      </c>
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
@@ -2285,77 +2364,83 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,75 +2486,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61800</v>
+        <v>39800</v>
       </c>
       <c r="E41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F41" s="3">
         <v>60900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>49400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
@@ -2476,24 +2566,24 @@
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>17800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>16100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2512,14 +2602,17 @@
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>8300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>9400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -2830,33 +2938,33 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>62300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2866,14 +2974,17 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>6700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2995,7 @@
         <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G49" s="3">
         <v>2200</v>
@@ -2893,7 +3004,7 @@
         <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>2300</v>
@@ -2902,23 +3013,23 @@
         <v>2300</v>
       </c>
       <c r="L49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M49" s="3">
         <v>2400</v>
       </c>
       <c r="N49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O49" s="3">
         <v>66100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>56300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,16 +3166,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -3066,33 +3186,33 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3102,14 +3222,17 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>418300</v>
+      </c>
+      <c r="E54" s="3">
         <v>406300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>402200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>414800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>377200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>352600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>360000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>368700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>353300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>345000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>354000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2481700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2299400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>356000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>333700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>227900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>223900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>219500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,16 +3524,19 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>2400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
@@ -3407,12 +3544,12 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3428,8 +3565,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3526,11 +3669,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3538,20 +3681,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>75200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,16 +3958,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+      <c r="E66" s="3">
+        <v>363500</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
@@ -3820,33 +3978,33 @@
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>314900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>311200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2195900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2040900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3856,14 +4014,17 @@
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>199700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,16 +4292,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>30800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
@@ -4138,24 +4312,24 @@
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>27500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>24500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4174,14 +4348,17 @@
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>21900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,58 +4552,61 @@
         <v>42800</v>
       </c>
       <c r="E76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F76" s="3">
         <v>42700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>285800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>258500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
@@ -4554,22 +4749,22 @@
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H81" s="3">
         <v>800</v>
       </c>
       <c r="I81" s="3">
+        <v>800</v>
+      </c>
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>800</v>
       </c>
       <c r="M81" s="3">
         <v>800</v>
@@ -4578,13 +4773,13 @@
         <v>800</v>
       </c>
       <c r="O81" s="3">
+        <v>800</v>
+      </c>
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
@@ -4593,13 +4788,16 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4100</v>
       </c>
       <c r="I8" s="3">
         <v>4100</v>
       </c>
       <c r="J8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3800</v>
       </c>
       <c r="N8" s="3">
         <v>3800</v>
       </c>
       <c r="O8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1800</v>
       </c>
       <c r="U8" s="3">
         <v>1800</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,15 +1210,15 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>-400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,37 +1258,38 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
@@ -1271,63 +1298,66 @@
         <v>800</v>
       </c>
       <c r="O17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3000</v>
       </c>
       <c r="N18" s="3">
         <v>3000</v>
@@ -1336,28 +1366,31 @@
         <v>3000</v>
       </c>
       <c r="P18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q18" s="3">
         <v>2800</v>
       </c>
       <c r="R18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1500</v>
       </c>
       <c r="V18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,40 +1413,41 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-1900</v>
       </c>
       <c r="K20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2000</v>
       </c>
       <c r="N20" s="3">
         <v>-2000</v>
@@ -1425,25 +1459,28 @@
         <v>-2000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,87 +1606,93 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1400</v>
       </c>
       <c r="G23" s="3">
         <v>1400</v>
       </c>
       <c r="H23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1100</v>
       </c>
       <c r="N23" s="3">
         <v>1100</v>
       </c>
       <c r="O23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1655,43 +1701,46 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,16 +1801,19 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000</v>
       </c>
       <c r="F26" s="3">
         <v>1000</v>
@@ -1770,22 +1822,22 @@
         <v>1000</v>
       </c>
       <c r="H26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="3">
         <v>800</v>
       </c>
       <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>800</v>
       </c>
       <c r="N26" s="3">
         <v>800</v>
@@ -1794,13 +1846,13 @@
         <v>800</v>
       </c>
       <c r="P26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
@@ -1809,21 +1861,24 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
@@ -1832,22 +1887,22 @@
         <v>1000</v>
       </c>
       <c r="H27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="3">
         <v>800</v>
       </c>
       <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>800</v>
       </c>
       <c r="N27" s="3">
         <v>800</v>
@@ -1856,13 +1911,13 @@
         <v>800</v>
       </c>
       <c r="P27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
@@ -1871,13 +1926,16 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1982,8 +2043,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,40 +2191,43 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>2000</v>
       </c>
       <c r="I32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>1900</v>
       </c>
       <c r="K32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2000</v>
       </c>
       <c r="N32" s="3">
         <v>2000</v>
@@ -2169,33 +2239,36 @@
         <v>2000</v>
       </c>
       <c r="Q32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
@@ -2204,22 +2277,22 @@
         <v>1000</v>
       </c>
       <c r="H33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="3">
         <v>800</v>
       </c>
       <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>800</v>
       </c>
       <c r="N33" s="3">
         <v>800</v>
@@ -2228,13 +2301,13 @@
         <v>800</v>
       </c>
       <c r="P33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
@@ -2243,13 +2316,16 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2386,19 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1000</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
@@ -2328,22 +2407,22 @@
         <v>1000</v>
       </c>
       <c r="H35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="3">
         <v>800</v>
       </c>
       <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>800</v>
       </c>
       <c r="N35" s="3">
         <v>800</v>
@@ -2352,13 +2431,13 @@
         <v>800</v>
       </c>
       <c r="P35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
@@ -2367,80 +2446,86 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,106 +2573,110 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E41" s="3">
         <v>39800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>49400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>17800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>16100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2605,14 +2695,17 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>8300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>9400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>62300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2977,19 +3085,22 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>6700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
         <v>2100</v>
@@ -2998,7 +3109,7 @@
         <v>2100</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
@@ -3007,7 +3118,7 @@
         <v>2200</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
@@ -3016,23 +3127,23 @@
         <v>2300</v>
       </c>
       <c r="M49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N49" s="3">
         <v>2400</v>
       </c>
       <c r="O49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P49" s="3">
         <v>66100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3225,14 +3345,17 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>423300</v>
+      </c>
+      <c r="E54" s="3">
         <v>418300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>406300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>402200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>377200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>352600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>360000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>368700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>353300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>345000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2481700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2299400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>356000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>333700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>227900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>223900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>219500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,32 +3661,35 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3568,8 +3705,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,11 +3803,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3672,11 +3815,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3684,20 +3827,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>75200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>363500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>314900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>311200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>2195900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2040900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4017,14 +4175,17 @@
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>199700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,44 +4466,47 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>30800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>27500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>24500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4351,14 +4525,17 @@
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>21900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="E76" s="3">
         <v>42800</v>
       </c>
       <c r="F76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="G76" s="3">
         <v>42700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>285800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>258500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +4856,89 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1000</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
@@ -4752,22 +4947,22 @@
         <v>1000</v>
       </c>
       <c r="H81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I81" s="3">
         <v>800</v>
       </c>
       <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>800</v>
       </c>
       <c r="N81" s="3">
         <v>800</v>
@@ -4776,13 +4971,13 @@
         <v>800</v>
       </c>
       <c r="P81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
@@ -4791,13 +4986,16 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,160 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4100</v>
       </c>
       <c r="J8" s="3">
         <v>4100</v>
       </c>
       <c r="K8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3800</v>
       </c>
       <c r="O8" s="3">
         <v>3800</v>
       </c>
       <c r="P8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1800</v>
       </c>
       <c r="V8" s="3">
         <v>1800</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,31 +1192,34 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1213,15 +1236,15 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,40 +1285,41 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
@@ -1301,66 +1328,69 @@
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3000</v>
       </c>
       <c r="O18" s="3">
         <v>3000</v>
@@ -1369,28 +1399,31 @@
         <v>3000</v>
       </c>
       <c r="Q18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="R18" s="3">
         <v>2800</v>
       </c>
       <c r="S18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1500</v>
       </c>
       <c r="W18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,43 +1447,44 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-1900</v>
       </c>
       <c r="L20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-2000</v>
@@ -1462,25 +1496,28 @@
         <v>-2000</v>
       </c>
       <c r="R20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,93 +1649,99 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1400</v>
       </c>
       <c r="H23" s="3">
         <v>1400</v>
       </c>
       <c r="I23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>1100</v>
       </c>
       <c r="K23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1100</v>
       </c>
       <c r="O23" s="3">
         <v>1100</v>
       </c>
       <c r="P23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -1704,43 +1750,46 @@
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,19 +1853,22 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1000</v>
       </c>
       <c r="G26" s="3">
         <v>1000</v>
@@ -1825,22 +1877,22 @@
         <v>1000</v>
       </c>
       <c r="I26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="3">
         <v>800</v>
       </c>
       <c r="K26" s="3">
+        <v>800</v>
+      </c>
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>800</v>
       </c>
       <c r="O26" s="3">
         <v>800</v>
@@ -1849,13 +1901,13 @@
         <v>800</v>
       </c>
       <c r="Q26" s="3">
+        <v>800</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
@@ -1864,24 +1916,27 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1000</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
@@ -1890,22 +1945,22 @@
         <v>1000</v>
       </c>
       <c r="I27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="3">
         <v>800</v>
       </c>
       <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>800</v>
       </c>
       <c r="O27" s="3">
         <v>800</v>
@@ -1914,13 +1969,13 @@
         <v>800</v>
       </c>
       <c r="Q27" s="3">
+        <v>800</v>
+      </c>
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
@@ -1929,13 +1984,16 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2046,8 +2107,8 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,43 +2261,46 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
       </c>
       <c r="J32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>1900</v>
       </c>
       <c r="L32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>2000</v>
@@ -2242,36 +2312,39 @@
         <v>2000</v>
       </c>
       <c r="R32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1000</v>
       </c>
       <c r="G33" s="3">
         <v>1000</v>
@@ -2280,22 +2353,22 @@
         <v>1000</v>
       </c>
       <c r="I33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
       </c>
       <c r="K33" s="3">
+        <v>800</v>
+      </c>
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>800</v>
       </c>
       <c r="O33" s="3">
         <v>800</v>
@@ -2304,13 +2377,13 @@
         <v>800</v>
       </c>
       <c r="Q33" s="3">
+        <v>800</v>
+      </c>
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
@@ -2319,13 +2392,16 @@
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,19 +2465,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1000</v>
       </c>
       <c r="G35" s="3">
         <v>1000</v>
@@ -2410,22 +2489,22 @@
         <v>1000</v>
       </c>
       <c r="I35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="3">
         <v>800</v>
       </c>
       <c r="K35" s="3">
+        <v>800</v>
+      </c>
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>800</v>
       </c>
       <c r="O35" s="3">
         <v>800</v>
@@ -2434,13 +2513,13 @@
         <v>800</v>
       </c>
       <c r="Q35" s="3">
+        <v>800</v>
+      </c>
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
@@ -2449,83 +2528,89 @@
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E41" s="3">
         <v>57300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>120400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>162500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,36 +2740,36 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>49400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>17800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>16100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2698,14 +2788,17 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>8300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3040,45 +3148,45 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>9400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>62300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3088,14 +3196,17 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>6700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3103,7 +3214,7 @@
         <v>2000</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
@@ -3112,7 +3223,7 @@
         <v>2100</v>
       </c>
       <c r="H49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I49" s="3">
         <v>2200</v>
@@ -3121,7 +3232,7 @@
         <v>2200</v>
       </c>
       <c r="K49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L49" s="3">
         <v>2300</v>
@@ -3130,23 +3241,23 @@
         <v>2300</v>
       </c>
       <c r="N49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O49" s="3">
         <v>2400</v>
       </c>
       <c r="P49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>66100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>56300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,45 +3420,45 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3348,14 +3468,17 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E54" s="3">
         <v>423300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>418300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>402200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>377200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>352600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>368700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>353300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>345000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>354000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2481700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2299400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>356000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>333700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>227900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>223900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>219500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,24 +3812,24 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,11 +3949,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3818,11 +3961,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3830,20 +3973,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>75200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4130,45 +4288,45 @@
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>363500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>314900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>311200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2195900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2040900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4178,14 +4336,17 @@
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>199700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4480,36 +4654,36 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>30800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>27500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>24500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4528,14 +4702,17 @@
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>21900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>42800</v>
       </c>
       <c r="F76" s="3">
         <v>42800</v>
       </c>
       <c r="G76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="H76" s="3">
         <v>42700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>285800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>258500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,89 +5048,95 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1000</v>
       </c>
       <c r="G81" s="3">
         <v>1000</v>
@@ -4950,22 +5145,22 @@
         <v>1000</v>
       </c>
       <c r="I81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J81" s="3">
         <v>800</v>
       </c>
       <c r="K81" s="3">
+        <v>800</v>
+      </c>
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>800</v>
       </c>
       <c r="O81" s="3">
         <v>800</v>
@@ -4974,13 +5169,13 @@
         <v>800</v>
       </c>
       <c r="Q81" s="3">
+        <v>800</v>
+      </c>
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
@@ -4989,13 +5184,16 @@
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,166 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4100</v>
       </c>
       <c r="K8" s="3">
         <v>4100</v>
       </c>
       <c r="L8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3800</v>
       </c>
       <c r="P8" s="3">
         <v>3800</v>
       </c>
       <c r="Q8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1800</v>
       </c>
       <c r="W8" s="3">
         <v>1800</v>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,8 +1243,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1239,15 +1261,15 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>-400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,43 +1311,44 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
@@ -1331,31 +1357,34 @@
         <v>800</v>
       </c>
       <c r="Q17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,37 +1392,37 @@
         <v>4000</v>
       </c>
       <c r="E18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3000</v>
       </c>
       <c r="P18" s="3">
         <v>3000</v>
@@ -1402,28 +1431,31 @@
         <v>3000</v>
       </c>
       <c r="R18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="S18" s="3">
         <v>2800</v>
       </c>
       <c r="T18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U18" s="3">
         <v>2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1500</v>
       </c>
       <c r="X18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,37 +1490,37 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="L20" s="3">
         <v>-1900</v>
       </c>
       <c r="M20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2000</v>
       </c>
       <c r="P20" s="3">
         <v>-2000</v>
@@ -1499,25 +1532,28 @@
         <v>-2000</v>
       </c>
       <c r="S20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,90 +1703,93 @@
         <v>1800</v>
       </c>
       <c r="E23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1400</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
       </c>
       <c r="J23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K23" s="3">
         <v>1100</v>
       </c>
       <c r="L23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1100</v>
       </c>
       <c r="P23" s="3">
         <v>1100</v>
       </c>
       <c r="Q23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1753,43 +1798,46 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
       </c>
       <c r="H26" s="3">
         <v>1000</v>
@@ -1880,22 +1931,22 @@
         <v>1000</v>
       </c>
       <c r="J26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K26" s="3">
         <v>800</v>
       </c>
       <c r="L26" s="3">
+        <v>800</v>
+      </c>
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>800</v>
       </c>
       <c r="P26" s="3">
         <v>800</v>
@@ -1904,13 +1955,13 @@
         <v>800</v>
       </c>
       <c r="R26" s="3">
+        <v>800</v>
+      </c>
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
@@ -1919,27 +1970,30 @@
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
       </c>
       <c r="H27" s="3">
         <v>1000</v>
@@ -1948,22 +2002,22 @@
         <v>1000</v>
       </c>
       <c r="J27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K27" s="3">
         <v>800</v>
       </c>
       <c r="L27" s="3">
+        <v>800</v>
+      </c>
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>800</v>
       </c>
       <c r="P27" s="3">
         <v>800</v>
@@ -1972,13 +2026,13 @@
         <v>800</v>
       </c>
       <c r="R27" s="3">
+        <v>800</v>
+      </c>
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
@@ -1987,13 +2041,16 @@
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2110,8 +2170,8 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,37 +2342,37 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
       </c>
       <c r="K32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L32" s="3">
         <v>1900</v>
       </c>
       <c r="M32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2000</v>
       </c>
       <c r="P32" s="3">
         <v>2000</v>
@@ -2315,39 +2384,42 @@
         <v>2000</v>
       </c>
       <c r="S32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1000</v>
       </c>
       <c r="H33" s="3">
         <v>1000</v>
@@ -2356,22 +2428,22 @@
         <v>1000</v>
       </c>
       <c r="J33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K33" s="3">
         <v>800</v>
       </c>
       <c r="L33" s="3">
+        <v>800</v>
+      </c>
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>800</v>
       </c>
       <c r="P33" s="3">
         <v>800</v>
@@ -2380,13 +2452,13 @@
         <v>800</v>
       </c>
       <c r="R33" s="3">
+        <v>800</v>
+      </c>
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
@@ -2395,13 +2467,16 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2543,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1000</v>
       </c>
       <c r="H35" s="3">
         <v>1000</v>
@@ -2492,22 +2570,22 @@
         <v>1000</v>
       </c>
       <c r="J35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K35" s="3">
         <v>800</v>
       </c>
       <c r="L35" s="3">
+        <v>800</v>
+      </c>
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>800</v>
       </c>
       <c r="P35" s="3">
         <v>800</v>
@@ -2516,13 +2594,13 @@
         <v>800</v>
       </c>
       <c r="R35" s="3">
+        <v>800</v>
+      </c>
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
@@ -2531,86 +2609,92 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,81 +2746,85 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E41" s="3">
         <v>33300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>120400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>48800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2743,36 +2832,36 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>49400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>17800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>16100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2791,14 +2880,17 @@
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>8300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>9200</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -3151,45 +3258,45 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>9400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>8700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>62300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>57400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3199,25 +3306,28 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>6700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2000</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3">
         <v>2100</v>
@@ -3226,7 +3336,7 @@
         <v>2100</v>
       </c>
       <c r="I49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J49" s="3">
         <v>2200</v>
@@ -3235,7 +3345,7 @@
         <v>2200</v>
       </c>
       <c r="L49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="M49" s="3">
         <v>2300</v>
@@ -3244,23 +3354,23 @@
         <v>2300</v>
       </c>
       <c r="O49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="P49" s="3">
         <v>2400</v>
       </c>
       <c r="Q49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R49" s="3">
         <v>66100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>56300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3525,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3423,45 +3542,45 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3471,14 +3590,17 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>3400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E54" s="3">
         <v>420700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>423300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>418300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>402200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>414800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>377200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>352600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>360000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>368700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>353300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>345000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>354000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2481700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2299400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>356000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>333700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>227900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>223900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>219500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,13 +3934,16 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>2700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -3815,24 +3951,24 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,8 +3984,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,11 +4094,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3964,11 +4106,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3976,20 +4118,20 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>75200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4431,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>400900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
@@ -4291,45 +4448,45 @@
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>363500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>314900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>311200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2195900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2040900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4339,14 +4496,17 @@
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>199700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>35200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -4657,36 +4830,36 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>30800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>27500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>24500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4705,14 +4878,17 @@
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>21900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E76" s="3">
         <v>45000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>42800</v>
       </c>
       <c r="G76" s="3">
         <v>42800</v>
       </c>
       <c r="H76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="I76" s="3">
         <v>42700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>285800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>258500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5239,101 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1000</v>
       </c>
       <c r="H81" s="3">
         <v>1000</v>
@@ -5148,22 +5342,22 @@
         <v>1000</v>
       </c>
       <c r="J81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K81" s="3">
         <v>800</v>
       </c>
       <c r="L81" s="3">
+        <v>800</v>
+      </c>
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>800</v>
       </c>
       <c r="P81" s="3">
         <v>800</v>
@@ -5172,13 +5366,13 @@
         <v>800</v>
       </c>
       <c r="R81" s="3">
+        <v>800</v>
+      </c>
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
@@ -5187,13 +5381,16 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,173 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4100</v>
       </c>
       <c r="L8" s="3">
         <v>4100</v>
       </c>
       <c r="M8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3800</v>
       </c>
       <c r="Q8" s="3">
         <v>3800</v>
       </c>
       <c r="R8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1800</v>
       </c>
       <c r="X8" s="3">
         <v>1800</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,8 +1269,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1264,15 +1287,15 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>-400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-200</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,46 +1338,47 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
@@ -1360,72 +1387,75 @@
         <v>800</v>
       </c>
       <c r="R17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
       <c r="T17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
       <c r="V17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="E18" s="3">
         <v>4000</v>
       </c>
       <c r="F18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3000</v>
       </c>
       <c r="Q18" s="3">
         <v>3000</v>
@@ -1434,28 +1464,31 @@
         <v>3000</v>
       </c>
       <c r="S18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T18" s="3">
         <v>2800</v>
       </c>
       <c r="U18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V18" s="3">
         <v>2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1500</v>
       </c>
       <c r="Y18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,49 +1514,50 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
         <v>-2200</v>
       </c>
       <c r="F20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-2000</v>
       </c>
       <c r="L20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="M20" s="3">
         <v>-1900</v>
       </c>
       <c r="N20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q20" s="3">
         <v>-2000</v>
@@ -1535,25 +1569,28 @@
         <v>-2000</v>
       </c>
       <c r="T20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,105 +1734,111 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
         <v>1800</v>
       </c>
       <c r="F23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>1400</v>
       </c>
       <c r="K23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L23" s="3">
         <v>1100</v>
       </c>
       <c r="M23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1100</v>
       </c>
       <c r="Q23" s="3">
         <v>1100</v>
       </c>
       <c r="R23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -1801,43 +1847,46 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,25 +1956,28 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1000</v>
       </c>
       <c r="I26" s="3">
         <v>1000</v>
@@ -1934,22 +1986,22 @@
         <v>1000</v>
       </c>
       <c r="K26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="3">
         <v>800</v>
       </c>
       <c r="M26" s="3">
+        <v>800</v>
+      </c>
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>800</v>
       </c>
       <c r="Q26" s="3">
         <v>800</v>
@@ -1958,13 +2010,13 @@
         <v>800</v>
       </c>
       <c r="S26" s="3">
+        <v>800</v>
+      </c>
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
@@ -1973,30 +2025,33 @@
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1000</v>
       </c>
       <c r="I27" s="3">
         <v>1000</v>
@@ -2005,22 +2060,22 @@
         <v>1000</v>
       </c>
       <c r="K27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="3">
         <v>800</v>
       </c>
       <c r="M27" s="3">
+        <v>800</v>
+      </c>
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>800</v>
       </c>
       <c r="Q27" s="3">
         <v>800</v>
@@ -2029,13 +2084,13 @@
         <v>800</v>
       </c>
       <c r="S27" s="3">
+        <v>800</v>
+      </c>
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
@@ -2044,13 +2099,16 @@
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2216,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2173,8 +2234,8 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,49 +2400,52 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
         <v>2200</v>
       </c>
       <c r="F32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>2000</v>
       </c>
       <c r="L32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M32" s="3">
         <v>1900</v>
       </c>
       <c r="N32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2000</v>
       </c>
       <c r="Q32" s="3">
         <v>2000</v>
@@ -2387,42 +2457,45 @@
         <v>2000</v>
       </c>
       <c r="T32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1000</v>
       </c>
       <c r="I33" s="3">
         <v>1000</v>
@@ -2431,22 +2504,22 @@
         <v>1000</v>
       </c>
       <c r="K33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L33" s="3">
         <v>800</v>
       </c>
       <c r="M33" s="3">
+        <v>800</v>
+      </c>
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>800</v>
       </c>
       <c r="Q33" s="3">
         <v>800</v>
@@ -2455,13 +2528,13 @@
         <v>800</v>
       </c>
       <c r="S33" s="3">
+        <v>800</v>
+      </c>
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
@@ -2470,13 +2543,16 @@
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,25 +2622,28 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1000</v>
       </c>
       <c r="I35" s="3">
         <v>1000</v>
@@ -2573,22 +2652,22 @@
         <v>1000</v>
       </c>
       <c r="K35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L35" s="3">
         <v>800</v>
       </c>
       <c r="M35" s="3">
+        <v>800</v>
+      </c>
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>800</v>
       </c>
       <c r="Q35" s="3">
         <v>800</v>
@@ -2597,13 +2676,13 @@
         <v>800</v>
       </c>
       <c r="S35" s="3">
+        <v>800</v>
+      </c>
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
@@ -2612,89 +2691,95 @@
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,124 +2833,128 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E41" s="3">
         <v>13400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>120400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>162500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>48800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>49400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>17800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>16100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2883,14 +2973,17 @@
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>8300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>9400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>8700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>62300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>57400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3309,28 +3417,31 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2000</v>
+      <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
         <v>2000</v>
       </c>
       <c r="G49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H49" s="3">
         <v>2100</v>
@@ -3339,7 +3450,7 @@
         <v>2100</v>
       </c>
       <c r="J49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K49" s="3">
         <v>2200</v>
@@ -3348,7 +3459,7 @@
         <v>2200</v>
       </c>
       <c r="M49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="N49" s="3">
         <v>2300</v>
@@ -3357,23 +3468,23 @@
         <v>2300</v>
       </c>
       <c r="P49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q49" s="3">
         <v>2400</v>
       </c>
       <c r="R49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S49" s="3">
         <v>66100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>56300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,62 +3645,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3593,14 +3713,17 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>3400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>457900</v>
+      </c>
+      <c r="E54" s="3">
         <v>445000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>420700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>423300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>418300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>406300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>402200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>414800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>377200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>352600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>360000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>368700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>353300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>345000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>354000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2481700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2299400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>356000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>333700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>227900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>223900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>219500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,41 +4071,44 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3987,8 +4124,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,13 +4219,16 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4097,11 +4240,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4109,11 +4252,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4121,20 +4264,20 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>75200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>400900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>363500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>314900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>311200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2195900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2040900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4499,14 +4657,17 @@
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>199700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,53 +4987,56 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>35200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>30800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>27500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>24500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4881,14 +5055,17 @@
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>21900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E76" s="3">
         <v>44200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>42800</v>
       </c>
       <c r="H76" s="3">
         <v>42800</v>
       </c>
       <c r="I76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J76" s="3">
         <v>42700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>285800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>258500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,101 +5431,107 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1000</v>
       </c>
       <c r="I81" s="3">
         <v>1000</v>
@@ -5345,22 +5540,22 @@
         <v>1000</v>
       </c>
       <c r="K81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L81" s="3">
         <v>800</v>
       </c>
       <c r="M81" s="3">
+        <v>800</v>
+      </c>
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>800</v>
       </c>
       <c r="Q81" s="3">
         <v>800</v>
@@ -5369,13 +5564,13 @@
         <v>800</v>
       </c>
       <c r="S81" s="3">
+        <v>800</v>
+      </c>
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
@@ -5384,13 +5579,16 @@
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,180 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4100</v>
       </c>
       <c r="M8" s="3">
         <v>4100</v>
       </c>
       <c r="N8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3800</v>
       </c>
       <c r="R8" s="3">
         <v>3800</v>
       </c>
       <c r="S8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1800</v>
       </c>
       <c r="Y8" s="3">
         <v>1800</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,8 +1295,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1290,15 +1313,15 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>-400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,40 +1375,40 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
@@ -1390,75 +1417,78 @@
         <v>800</v>
       </c>
       <c r="S17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
       <c r="W17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
       </c>
       <c r="Y17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4000</v>
       </c>
       <c r="F18" s="3">
         <v>4000</v>
       </c>
       <c r="G18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H18" s="3">
         <v>3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3000</v>
       </c>
       <c r="R18" s="3">
         <v>3000</v>
@@ -1467,28 +1497,31 @@
         <v>3000</v>
       </c>
       <c r="T18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="U18" s="3">
         <v>2800</v>
       </c>
       <c r="V18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W18" s="3">
         <v>2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1500</v>
       </c>
       <c r="Z18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,52 +1548,53 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2000</v>
       </c>
       <c r="L20" s="3">
         <v>-2000</v>
       </c>
       <c r="M20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="N20" s="3">
         <v>-1900</v>
       </c>
       <c r="O20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2000</v>
       </c>
       <c r="R20" s="3">
         <v>-2000</v>
@@ -1572,25 +1606,28 @@
         <v>-2000</v>
       </c>
       <c r="U20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,111 +1777,117 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1800</v>
       </c>
       <c r="F23" s="3">
         <v>1800</v>
       </c>
       <c r="G23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1400</v>
       </c>
       <c r="K23" s="3">
         <v>1400</v>
       </c>
       <c r="L23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1100</v>
       </c>
       <c r="N23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1100</v>
       </c>
       <c r="R23" s="3">
         <v>1100</v>
       </c>
       <c r="S23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -1850,43 +1896,46 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,28 +2008,31 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1000</v>
       </c>
       <c r="J26" s="3">
         <v>1000</v>
@@ -1989,22 +2041,22 @@
         <v>1000</v>
       </c>
       <c r="L26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M26" s="3">
         <v>800</v>
       </c>
       <c r="N26" s="3">
+        <v>800</v>
+      </c>
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>800</v>
       </c>
       <c r="R26" s="3">
         <v>800</v>
@@ -2013,13 +2065,13 @@
         <v>800</v>
       </c>
       <c r="T26" s="3">
+        <v>800</v>
+      </c>
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
@@ -2028,33 +2080,36 @@
         <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1000</v>
       </c>
       <c r="J27" s="3">
         <v>1000</v>
@@ -2063,22 +2118,22 @@
         <v>1000</v>
       </c>
       <c r="L27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M27" s="3">
         <v>800</v>
       </c>
       <c r="N27" s="3">
+        <v>800</v>
+      </c>
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>800</v>
       </c>
       <c r="R27" s="3">
         <v>800</v>
@@ -2087,13 +2142,13 @@
         <v>800</v>
       </c>
       <c r="T27" s="3">
+        <v>800</v>
+      </c>
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
@@ -2102,13 +2157,16 @@
         <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2237,8 +2298,8 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,52 +2470,55 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>2200</v>
       </c>
       <c r="G32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2000</v>
       </c>
       <c r="L32" s="3">
         <v>2000</v>
       </c>
       <c r="M32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N32" s="3">
         <v>1900</v>
       </c>
       <c r="O32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2000</v>
       </c>
       <c r="R32" s="3">
         <v>2000</v>
@@ -2460,45 +2530,48 @@
         <v>2000</v>
       </c>
       <c r="U32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1000</v>
       </c>
       <c r="J33" s="3">
         <v>1000</v>
@@ -2507,22 +2580,22 @@
         <v>1000</v>
       </c>
       <c r="L33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M33" s="3">
         <v>800</v>
       </c>
       <c r="N33" s="3">
+        <v>800</v>
+      </c>
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>800</v>
       </c>
       <c r="R33" s="3">
         <v>800</v>
@@ -2531,13 +2604,13 @@
         <v>800</v>
       </c>
       <c r="T33" s="3">
+        <v>800</v>
+      </c>
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
@@ -2546,13 +2619,16 @@
         <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,28 +2701,31 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1000</v>
       </c>
       <c r="J35" s="3">
         <v>1000</v>
@@ -2655,22 +2734,22 @@
         <v>1000</v>
       </c>
       <c r="L35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M35" s="3">
         <v>800</v>
       </c>
       <c r="N35" s="3">
+        <v>800</v>
+      </c>
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>800</v>
       </c>
       <c r="R35" s="3">
         <v>800</v>
@@ -2679,13 +2758,13 @@
         <v>800</v>
       </c>
       <c r="T35" s="3">
+        <v>800</v>
+      </c>
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
@@ -2694,92 +2773,98 @@
         <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,130 +2920,134 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E41" s="3">
         <v>55600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>120400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>162500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>48800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>49400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>17800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>16100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2976,14 +3066,17 @@
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>8300</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,65 +3457,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>9400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>62300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>57400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3420,31 +3528,34 @@
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>6700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2000</v>
+      <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
       </c>
       <c r="H49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I49" s="3">
         <v>2100</v>
@@ -3453,7 +3564,7 @@
         <v>2100</v>
       </c>
       <c r="K49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L49" s="3">
         <v>2200</v>
@@ -3462,7 +3573,7 @@
         <v>2200</v>
       </c>
       <c r="N49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="O49" s="3">
         <v>2300</v>
@@ -3471,23 +3582,23 @@
         <v>2300</v>
       </c>
       <c r="Q49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="R49" s="3">
         <v>2400</v>
       </c>
       <c r="S49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T49" s="3">
         <v>66100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>56300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,65 +3765,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>5900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,14 +3836,17 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>3400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>460300</v>
+      </c>
+      <c r="E54" s="3">
         <v>457900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>445000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>420700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>423300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>418300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>406300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>402200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>414800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>377200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>352600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>360000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>368700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>353300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>345000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>354000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2481700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2299400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>356000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>333700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>227900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>223900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>219500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,44 +4208,47 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4127,8 +4264,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4374,7 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4243,11 +4386,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4255,11 +4398,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4267,20 +4410,20 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>75200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>400900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>363500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>314900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>311200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>2195900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2040900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4660,14 +4818,17 @@
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>199700</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,56 +5161,59 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>35200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>30800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>27500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>24500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5058,14 +5232,17 @@
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>21900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E76" s="3">
         <v>43900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>42800</v>
       </c>
       <c r="I76" s="3">
         <v>42800</v>
       </c>
       <c r="J76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K76" s="3">
         <v>42700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>285800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>258500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,107 +5623,113 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1000</v>
       </c>
       <c r="J81" s="3">
         <v>1000</v>
@@ -5543,22 +5738,22 @@
         <v>1000</v>
       </c>
       <c r="L81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M81" s="3">
         <v>800</v>
       </c>
       <c r="N81" s="3">
+        <v>800</v>
+      </c>
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>800</v>
       </c>
       <c r="R81" s="3">
         <v>800</v>
@@ -5567,13 +5762,13 @@
         <v>800</v>
       </c>
       <c r="T81" s="3">
+        <v>800</v>
+      </c>
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
@@ -5582,13 +5777,16 @@
         <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,187 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4100</v>
       </c>
       <c r="N8" s="3">
         <v>4100</v>
       </c>
       <c r="O8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3800</v>
       </c>
       <c r="S8" s="3">
         <v>3800</v>
       </c>
       <c r="T8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1800</v>
       </c>
       <c r="Z8" s="3">
         <v>1800</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1316,15 +1339,15 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>-400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-200</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,52 +1392,53 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
@@ -1420,78 +1447,81 @@
         <v>800</v>
       </c>
       <c r="T17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>700</v>
       </c>
       <c r="V17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4000</v>
       </c>
       <c r="G18" s="3">
         <v>4000</v>
       </c>
       <c r="H18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="3">
         <v>3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3000</v>
       </c>
       <c r="S18" s="3">
         <v>3000</v>
@@ -1500,28 +1530,31 @@
         <v>3000</v>
       </c>
       <c r="U18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="V18" s="3">
         <v>2800</v>
       </c>
       <c r="W18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X18" s="3">
         <v>2300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1500</v>
       </c>
       <c r="AA18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,55 +1582,56 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>-2200</v>
       </c>
       <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2000</v>
       </c>
       <c r="M20" s="3">
         <v>-2000</v>
       </c>
       <c r="N20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-1900</v>
       </c>
       <c r="P20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2000</v>
       </c>
       <c r="S20" s="3">
         <v>-2000</v>
@@ -1609,25 +1643,28 @@
         <v>-2000</v>
       </c>
       <c r="V20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,108 +1832,111 @@
         <v>1900</v>
       </c>
       <c r="E23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1800</v>
       </c>
       <c r="G23" s="3">
         <v>1800</v>
       </c>
       <c r="H23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1400</v>
       </c>
       <c r="L23" s="3">
         <v>1400</v>
       </c>
       <c r="M23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1100</v>
       </c>
       <c r="O23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1100</v>
       </c>
       <c r="S23" s="3">
         <v>1100</v>
       </c>
       <c r="T23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1899,43 +1945,46 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,31 +2060,34 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1000</v>
       </c>
       <c r="K26" s="3">
         <v>1000</v>
@@ -2044,22 +2096,22 @@
         <v>1000</v>
       </c>
       <c r="M26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N26" s="3">
         <v>800</v>
       </c>
       <c r="O26" s="3">
+        <v>800</v>
+      </c>
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>800</v>
       </c>
       <c r="S26" s="3">
         <v>800</v>
@@ -2068,13 +2120,13 @@
         <v>800</v>
       </c>
       <c r="U26" s="3">
+        <v>800</v>
+      </c>
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>100</v>
@@ -2083,36 +2135,39 @@
         <v>100</v>
       </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1000</v>
       </c>
       <c r="K27" s="3">
         <v>1000</v>
@@ -2121,22 +2176,22 @@
         <v>1000</v>
       </c>
       <c r="M27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N27" s="3">
         <v>800</v>
       </c>
       <c r="O27" s="3">
+        <v>800</v>
+      </c>
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>800</v>
       </c>
       <c r="S27" s="3">
         <v>800</v>
@@ -2145,13 +2200,13 @@
         <v>800</v>
       </c>
       <c r="U27" s="3">
+        <v>800</v>
+      </c>
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>100</v>
@@ -2160,13 +2215,16 @@
         <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2301,8 +2362,8 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,55 +2540,58 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>2200</v>
       </c>
       <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2000</v>
       </c>
       <c r="M32" s="3">
         <v>2000</v>
       </c>
       <c r="N32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>1900</v>
       </c>
       <c r="P32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
       </c>
       <c r="S32" s="3">
         <v>2000</v>
@@ -2533,48 +2603,51 @@
         <v>2000</v>
       </c>
       <c r="V32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1000</v>
       </c>
       <c r="K33" s="3">
         <v>1000</v>
@@ -2583,22 +2656,22 @@
         <v>1000</v>
       </c>
       <c r="M33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N33" s="3">
         <v>800</v>
       </c>
       <c r="O33" s="3">
+        <v>800</v>
+      </c>
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>800</v>
       </c>
       <c r="S33" s="3">
         <v>800</v>
@@ -2607,13 +2680,13 @@
         <v>800</v>
       </c>
       <c r="U33" s="3">
+        <v>800</v>
+      </c>
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>100</v>
@@ -2622,13 +2695,16 @@
         <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,31 +2780,34 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1000</v>
       </c>
       <c r="K35" s="3">
         <v>1000</v>
@@ -2737,22 +2816,22 @@
         <v>1000</v>
       </c>
       <c r="M35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N35" s="3">
         <v>800</v>
       </c>
       <c r="O35" s="3">
+        <v>800</v>
+      </c>
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>800</v>
       </c>
       <c r="S35" s="3">
         <v>800</v>
@@ -2761,13 +2840,13 @@
         <v>800</v>
       </c>
       <c r="U35" s="3">
+        <v>800</v>
+      </c>
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>100</v>
@@ -2776,95 +2855,101 @@
         <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E41" s="3">
         <v>37300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>120400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>162500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,48 +3099,48 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>48800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>49400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>17800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>16100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3069,14 +3159,17 @@
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>8300</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3471,57 +3579,57 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>9400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>62300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>57400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3531,34 +3639,37 @@
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2000</v>
+      <c r="F49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
       </c>
       <c r="I49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J49" s="3">
         <v>2100</v>
@@ -3567,7 +3678,7 @@
         <v>2100</v>
       </c>
       <c r="L49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M49" s="3">
         <v>2200</v>
@@ -3576,7 +3687,7 @@
         <v>2200</v>
       </c>
       <c r="O49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="P49" s="3">
         <v>2300</v>
@@ -3585,23 +3696,23 @@
         <v>2300</v>
       </c>
       <c r="R49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="S49" s="3">
         <v>2400</v>
       </c>
       <c r="T49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U49" s="3">
         <v>66100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>56300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,57 +3899,57 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>5900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3839,14 +3959,17 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>3400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E54" s="3">
         <v>460300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>457900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>445000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>420700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>423300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>418300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>406300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>402200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>414800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>377200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>352600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>360000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>368700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>353300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>345000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>354000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2481700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2299400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>356000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>333700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>227900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>223900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>219500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,36 +4359,36 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4267,8 +4404,8 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4520,7 @@
         <v>1500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4389,11 +4532,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4401,11 +4544,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4413,20 +4556,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>75200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4761,57 +4919,57 @@
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>400900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>363500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>314900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>311200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>2195900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2040900</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4821,14 +4979,17 @@
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>199700</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,48 +5349,48 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>35200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>30800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>27500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>24500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5235,14 +5409,17 @@
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>21900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E76" s="3">
         <v>45100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>42800</v>
       </c>
       <c r="J76" s="3">
         <v>42800</v>
       </c>
       <c r="K76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="L76" s="3">
         <v>42700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>285800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>258500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,113 +5815,119 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1000</v>
       </c>
       <c r="K81" s="3">
         <v>1000</v>
@@ -5741,22 +5936,22 @@
         <v>1000</v>
       </c>
       <c r="M81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N81" s="3">
         <v>800</v>
       </c>
       <c r="O81" s="3">
+        <v>800</v>
+      </c>
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>800</v>
       </c>
       <c r="S81" s="3">
         <v>800</v>
@@ -5765,13 +5960,13 @@
         <v>800</v>
       </c>
       <c r="U81" s="3">
+        <v>800</v>
+      </c>
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>100</v>
@@ -5780,13 +5975,16 @@
         <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,193 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
         <v>5100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4100</v>
       </c>
       <c r="O8" s="3">
         <v>4100</v>
       </c>
       <c r="P8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3800</v>
       </c>
       <c r="T8" s="3">
         <v>3800</v>
       </c>
       <c r="U8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1800</v>
       </c>
       <c r="AA8" s="3">
         <v>1800</v>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1324,8 +1346,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1342,15 +1364,15 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>-400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-200</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,55 +1418,56 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>800</v>
@@ -1450,81 +1476,84 @@
         <v>800</v>
       </c>
       <c r="U17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
       <c r="Y17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z17" s="3">
         <v>400</v>
       </c>
       <c r="AA17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4000</v>
       </c>
       <c r="H18" s="3">
         <v>4000</v>
       </c>
       <c r="I18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="3">
         <v>3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3000</v>
       </c>
       <c r="T18" s="3">
         <v>3000</v>
@@ -1533,28 +1562,31 @@
         <v>3000</v>
       </c>
       <c r="V18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="W18" s="3">
         <v>2800</v>
       </c>
       <c r="X18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1500</v>
       </c>
       <c r="AB18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,49 +1625,49 @@
         <v>-2500</v>
       </c>
       <c r="E20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2200</v>
       </c>
       <c r="H20" s="3">
         <v>-2200</v>
       </c>
       <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2000</v>
       </c>
       <c r="N20" s="3">
         <v>-2000</v>
       </c>
       <c r="O20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="P20" s="3">
         <v>-1900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2000</v>
       </c>
       <c r="T20" s="3">
         <v>-2000</v>
@@ -1646,25 +1679,28 @@
         <v>-2000</v>
       </c>
       <c r="W20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1862,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,111 +1877,114 @@
         <v>1900</v>
       </c>
       <c r="F23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G23" s="3">
         <v>1400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1800</v>
       </c>
       <c r="H23" s="3">
         <v>1800</v>
       </c>
       <c r="I23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
       </c>
       <c r="N23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O23" s="3">
         <v>1100</v>
       </c>
       <c r="P23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1100</v>
       </c>
       <c r="T23" s="3">
         <v>1100</v>
       </c>
       <c r="U23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
       </c>
       <c r="N24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1948,43 +1993,46 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,34 +2111,37 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1000</v>
       </c>
       <c r="L26" s="3">
         <v>1000</v>
@@ -2099,22 +2150,22 @@
         <v>1000</v>
       </c>
       <c r="N26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="3">
         <v>800</v>
       </c>
       <c r="P26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>800</v>
       </c>
       <c r="T26" s="3">
         <v>800</v>
@@ -2123,13 +2174,13 @@
         <v>800</v>
       </c>
       <c r="V26" s="3">
+        <v>800</v>
+      </c>
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>100</v>
@@ -2138,39 +2189,42 @@
         <v>100</v>
       </c>
       <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1000</v>
       </c>
       <c r="L27" s="3">
         <v>1000</v>
@@ -2179,22 +2233,22 @@
         <v>1000</v>
       </c>
       <c r="N27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O27" s="3">
         <v>800</v>
       </c>
       <c r="P27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>800</v>
       </c>
       <c r="T27" s="3">
         <v>800</v>
@@ -2203,13 +2257,13 @@
         <v>800</v>
       </c>
       <c r="V27" s="3">
+        <v>800</v>
+      </c>
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>100</v>
@@ -2218,13 +2272,16 @@
         <v>100</v>
       </c>
       <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2365,8 +2425,8 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,49 +2621,49 @@
         <v>2500</v>
       </c>
       <c r="E32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2200</v>
       </c>
       <c r="H32" s="3">
         <v>2200</v>
       </c>
       <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2000</v>
       </c>
       <c r="N32" s="3">
         <v>2000</v>
       </c>
       <c r="O32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="P32" s="3">
         <v>1900</v>
       </c>
       <c r="Q32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2000</v>
       </c>
       <c r="T32" s="3">
         <v>2000</v>
@@ -2606,51 +2675,54 @@
         <v>2000</v>
       </c>
       <c r="W32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1000</v>
       </c>
       <c r="L33" s="3">
         <v>1000</v>
@@ -2659,22 +2731,22 @@
         <v>1000</v>
       </c>
       <c r="N33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O33" s="3">
         <v>800</v>
       </c>
       <c r="P33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>800</v>
       </c>
       <c r="T33" s="3">
         <v>800</v>
@@ -2683,13 +2755,13 @@
         <v>800</v>
       </c>
       <c r="V33" s="3">
+        <v>800</v>
+      </c>
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>100</v>
@@ -2698,13 +2770,16 @@
         <v>100</v>
       </c>
       <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,34 +2858,37 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1000</v>
       </c>
       <c r="L35" s="3">
         <v>1000</v>
@@ -2819,22 +2897,22 @@
         <v>1000</v>
       </c>
       <c r="N35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O35" s="3">
         <v>800</v>
       </c>
       <c r="P35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>800</v>
       </c>
       <c r="T35" s="3">
         <v>800</v>
@@ -2843,13 +2921,13 @@
         <v>800</v>
       </c>
       <c r="V35" s="3">
+        <v>800</v>
+      </c>
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>100</v>
@@ -2858,98 +2936,104 @@
         <v>100</v>
       </c>
       <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E41" s="3">
         <v>36000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>42200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>120400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>162500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3102,48 +3191,48 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>48800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>49400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>17800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>16100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3162,14 +3251,17 @@
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>8300</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,57 +3689,57 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>9400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>8700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>62300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>57400</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3642,14 +3749,17 @@
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>6700</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,22 +3767,22 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2000</v>
+      <c r="G49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>2000</v>
       </c>
       <c r="J49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K49" s="3">
         <v>2100</v>
@@ -3681,7 +3791,7 @@
         <v>2100</v>
       </c>
       <c r="M49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N49" s="3">
         <v>2200</v>
@@ -3690,7 +3800,7 @@
         <v>2200</v>
       </c>
       <c r="P49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="Q49" s="3">
         <v>2300</v>
@@ -3699,23 +3809,23 @@
         <v>2300</v>
       </c>
       <c r="S49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="T49" s="3">
         <v>2400</v>
       </c>
       <c r="U49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V49" s="3">
         <v>66100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>56300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3902,57 +4021,57 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>5900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3962,14 +4081,17 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>3400</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E54" s="3">
         <v>473800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>460300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>457900</v>
       </c>
-      <c r="G54" s="3">
-        <v>445000</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>420700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>423300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>418300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>406300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>402200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>414800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>377200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>352600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>360000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>368700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>353300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>345000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>354000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2481700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2299400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>356000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>333700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>227900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>223900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>219500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4362,36 +4498,36 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4407,8 +4543,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,13 +4647,16 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
@@ -4523,7 +4665,7 @@
         <v>1500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4535,11 +4677,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4547,11 +4689,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4559,20 +4701,20 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>75200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,71 +5062,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>400900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>363500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>314900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>311200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>2195900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2040900</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4982,14 +5139,17 @@
       <c r="Z66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>199700</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5508,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5352,48 +5525,48 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>35200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>30800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>27500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>24500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5412,14 +5585,17 @@
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>21900</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E76" s="3">
         <v>46300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>42800</v>
       </c>
       <c r="K76" s="3">
         <v>42800</v>
       </c>
       <c r="L76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="M76" s="3">
         <v>42700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>285800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>258500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,119 +6006,125 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1000</v>
       </c>
       <c r="L81" s="3">
         <v>1000</v>
@@ -5939,22 +6133,22 @@
         <v>1000</v>
       </c>
       <c r="N81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O81" s="3">
         <v>800</v>
       </c>
       <c r="P81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>800</v>
       </c>
       <c r="T81" s="3">
         <v>800</v>
@@ -5963,13 +6157,13 @@
         <v>800</v>
       </c>
       <c r="V81" s="3">
+        <v>800</v>
+      </c>
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>100</v>
@@ -5978,13 +6172,16 @@
         <v>100</v>
       </c>
       <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,200 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4100</v>
       </c>
       <c r="P8" s="3">
         <v>4100</v>
       </c>
       <c r="Q8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3800</v>
       </c>
       <c r="U8" s="3">
         <v>3800</v>
       </c>
       <c r="V8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1800</v>
       </c>
       <c r="AB8" s="3">
         <v>1800</v>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,8 +1372,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1367,15 +1390,15 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>-400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-200</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,58 +1445,59 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
@@ -1479,84 +1506,87 @@
         <v>800</v>
       </c>
       <c r="V17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
       </c>
       <c r="X17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y17" s="3">
         <v>500</v>
       </c>
       <c r="Z17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>400</v>
       </c>
       <c r="AB17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4000</v>
       </c>
       <c r="I18" s="3">
         <v>4000</v>
       </c>
       <c r="J18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3000</v>
       </c>
       <c r="U18" s="3">
         <v>3000</v>
@@ -1565,28 +1595,31 @@
         <v>3000</v>
       </c>
       <c r="W18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="X18" s="3">
         <v>2800</v>
       </c>
       <c r="Y18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z18" s="3">
         <v>2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1500</v>
       </c>
       <c r="AC18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,61 +1649,62 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
         <v>-2500</v>
       </c>
       <c r="F20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2200</v>
       </c>
       <c r="I20" s="3">
         <v>-2200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-2000</v>
       </c>
       <c r="P20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1900</v>
       </c>
       <c r="R20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2000</v>
       </c>
       <c r="U20" s="3">
         <v>-2000</v>
@@ -1682,25 +1716,28 @@
         <v>-2000</v>
       </c>
       <c r="X20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,13 +1905,16 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E23" s="3">
         <v>1900</v>
@@ -1880,114 +1923,117 @@
         <v>1900</v>
       </c>
       <c r="G23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H23" s="3">
         <v>1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1800</v>
       </c>
       <c r="I23" s="3">
         <v>1800</v>
       </c>
       <c r="J23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
       </c>
       <c r="O23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="P23" s="3">
         <v>1100</v>
       </c>
       <c r="Q23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1100</v>
       </c>
       <c r="U23" s="3">
         <v>1100</v>
       </c>
       <c r="V23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1996,43 +2042,46 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,37 +2163,40 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
       </c>
       <c r="M26" s="3">
         <v>1000</v>
@@ -2153,22 +2205,22 @@
         <v>1000</v>
       </c>
       <c r="O26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P26" s="3">
         <v>800</v>
       </c>
       <c r="Q26" s="3">
+        <v>800</v>
+      </c>
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>800</v>
       </c>
       <c r="U26" s="3">
         <v>800</v>
@@ -2177,13 +2229,13 @@
         <v>800</v>
       </c>
       <c r="W26" s="3">
+        <v>800</v>
+      </c>
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>100</v>
@@ -2192,42 +2244,45 @@
         <v>100</v>
       </c>
       <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1000</v>
       </c>
       <c r="M27" s="3">
         <v>1000</v>
@@ -2236,22 +2291,22 @@
         <v>1000</v>
       </c>
       <c r="O27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P27" s="3">
         <v>800</v>
       </c>
       <c r="Q27" s="3">
+        <v>800</v>
+      </c>
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>800</v>
       </c>
       <c r="U27" s="3">
         <v>800</v>
@@ -2260,13 +2315,13 @@
         <v>800</v>
       </c>
       <c r="W27" s="3">
+        <v>800</v>
+      </c>
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>100</v>
       </c>
       <c r="Z27" s="3">
         <v>100</v>
@@ -2275,13 +2330,16 @@
         <v>100</v>
       </c>
       <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,8 +2471,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2428,8 +2489,8 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,61 +2679,64 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
         <v>2500</v>
       </c>
       <c r="F32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2200</v>
       </c>
       <c r="I32" s="3">
         <v>2200</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>2000</v>
       </c>
       <c r="P32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q32" s="3">
         <v>1900</v>
       </c>
       <c r="R32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2000</v>
       </c>
       <c r="U32" s="3">
         <v>2000</v>
@@ -2678,54 +2748,57 @@
         <v>2000</v>
       </c>
       <c r="X32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1000</v>
       </c>
       <c r="M33" s="3">
         <v>1000</v>
@@ -2734,22 +2807,22 @@
         <v>1000</v>
       </c>
       <c r="O33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P33" s="3">
         <v>800</v>
       </c>
       <c r="Q33" s="3">
+        <v>800</v>
+      </c>
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>800</v>
       </c>
       <c r="U33" s="3">
         <v>800</v>
@@ -2758,13 +2831,13 @@
         <v>800</v>
       </c>
       <c r="W33" s="3">
+        <v>800</v>
+      </c>
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>100</v>
@@ -2773,13 +2846,16 @@
         <v>100</v>
       </c>
       <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,37 +2937,40 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1000</v>
       </c>
       <c r="M35" s="3">
         <v>1000</v>
@@ -2900,22 +2979,22 @@
         <v>1000</v>
       </c>
       <c r="O35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P35" s="3">
         <v>800</v>
       </c>
       <c r="Q35" s="3">
+        <v>800</v>
+      </c>
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>800</v>
       </c>
       <c r="U35" s="3">
         <v>800</v>
@@ -2924,13 +3003,13 @@
         <v>800</v>
       </c>
       <c r="W35" s="3">
+        <v>800</v>
+      </c>
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>100</v>
@@ -2939,101 +3018,107 @@
         <v>100</v>
       </c>
       <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E41" s="3">
         <v>21800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>120400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>162500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3194,48 +3284,48 @@
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>48800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>49400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>17800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>16100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3254,14 +3344,17 @@
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>8300</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3692,57 +3800,57 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>9400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>8700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>62300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>57400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3752,14 +3860,17 @@
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>6700</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3770,22 +3881,22 @@
         <v>1800</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2000</v>
+      <c r="H49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>2000</v>
       </c>
       <c r="K49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L49" s="3">
         <v>2100</v>
@@ -3794,7 +3905,7 @@
         <v>2100</v>
       </c>
       <c r="N49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="O49" s="3">
         <v>2200</v>
@@ -3803,7 +3914,7 @@
         <v>2200</v>
       </c>
       <c r="Q49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="R49" s="3">
         <v>2300</v>
@@ -3812,23 +3923,23 @@
         <v>2300</v>
       </c>
       <c r="T49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="U49" s="3">
         <v>2400</v>
       </c>
       <c r="V49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W49" s="3">
         <v>66100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>56300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4024,57 +4144,57 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>5900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4084,14 +4204,17 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>3400</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500200</v>
+      </c>
+      <c r="E54" s="3">
         <v>471600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>473800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>460300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>457900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>420700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>423300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>418300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>406300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>402200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>414800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>377200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>352600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>360000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>368700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>353300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>345000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>354000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2481700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2299400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>356000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>333700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>227900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>223900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>219500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4501,36 +4638,36 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4546,8 +4683,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4567,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,16 +4790,19 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1500</v>
@@ -4668,7 +4811,7 @@
         <v>1500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4680,11 +4823,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4692,11 +4835,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4704,20 +4847,20 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>2500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>75200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5091,48 +5249,48 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>363500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>314900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>311200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>2195900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2040900</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
@@ -5142,14 +5300,17 @@
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>199700</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5682,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5528,48 +5702,48 @@
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>35200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>30800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>27500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>24500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5588,14 +5762,17 @@
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>21900</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E76" s="3">
         <v>47600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>42800</v>
       </c>
       <c r="L76" s="3">
         <v>42800</v>
       </c>
       <c r="M76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="N76" s="3">
         <v>42700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>285800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>258500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>32000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,125 +6198,131 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1000</v>
       </c>
       <c r="M81" s="3">
         <v>1000</v>
@@ -6136,22 +6331,22 @@
         <v>1000</v>
       </c>
       <c r="O81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P81" s="3">
         <v>800</v>
       </c>
       <c r="Q81" s="3">
+        <v>800</v>
+      </c>
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>800</v>
       </c>
       <c r="U81" s="3">
         <v>800</v>
@@ -6160,13 +6355,13 @@
         <v>800</v>
       </c>
       <c r="W81" s="3">
+        <v>800</v>
+      </c>
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>100</v>
@@ -6175,13 +6370,16 @@
         <v>100</v>
       </c>
       <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>FBSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,207 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4100</v>
       </c>
       <c r="Q8" s="3">
         <v>4100</v>
       </c>
       <c r="R8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S8" s="3">
         <v>4300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3800</v>
       </c>
       <c r="V8" s="3">
         <v>3800</v>
       </c>
       <c r="W8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X8" s="3">
         <v>3700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1800</v>
       </c>
       <c r="AC8" s="3">
         <v>1800</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,8 +1398,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1393,15 +1416,15 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>-400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-200</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,61 +1472,62 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
@@ -1509,87 +1536,90 @@
         <v>800</v>
       </c>
       <c r="W17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X17" s="3">
         <v>700</v>
       </c>
       <c r="Y17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Z17" s="3">
         <v>500</v>
       </c>
       <c r="AA17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
       </c>
       <c r="AC17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4000</v>
       </c>
       <c r="J18" s="3">
         <v>4000</v>
       </c>
       <c r="K18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L18" s="3">
         <v>3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3000</v>
       </c>
       <c r="V18" s="3">
         <v>3000</v>
@@ -1598,28 +1628,31 @@
         <v>3000</v>
       </c>
       <c r="X18" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Y18" s="3">
         <v>2800</v>
       </c>
       <c r="Z18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA18" s="3">
         <v>2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1400</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>1500</v>
       </c>
       <c r="AD18" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,64 +1683,65 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2500</v>
       </c>
       <c r="F20" s="3">
         <v>-2500</v>
       </c>
       <c r="G20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
       </c>
       <c r="J20" s="3">
         <v>-2200</v>
       </c>
       <c r="K20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2000</v>
       </c>
       <c r="P20" s="3">
         <v>-2000</v>
       </c>
       <c r="Q20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="R20" s="3">
         <v>-1900</v>
       </c>
       <c r="S20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2000</v>
       </c>
       <c r="V20" s="3">
         <v>-2000</v>
@@ -1719,25 +1753,28 @@
         <v>-2000</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,7 +1960,7 @@
         <v>2400</v>
       </c>
       <c r="E23" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="F23" s="3">
         <v>1900</v>
@@ -1926,76 +1969,79 @@
         <v>1900</v>
       </c>
       <c r="H23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I23" s="3">
         <v>1400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1800</v>
       </c>
       <c r="J23" s="3">
         <v>1800</v>
       </c>
       <c r="K23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1400</v>
       </c>
       <c r="O23" s="3">
         <v>1400</v>
       </c>
       <c r="P23" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q23" s="3">
         <v>1100</v>
       </c>
       <c r="R23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1100</v>
       </c>
       <c r="V23" s="3">
         <v>1100</v>
       </c>
       <c r="W23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,40 +2049,40 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
@@ -2045,43 +2091,46 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,40 +2215,43 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1000</v>
       </c>
       <c r="N26" s="3">
         <v>1000</v>
@@ -2208,22 +2260,22 @@
         <v>1000</v>
       </c>
       <c r="P26" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q26" s="3">
         <v>800</v>
       </c>
       <c r="R26" s="3">
+        <v>800</v>
+      </c>
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>800</v>
       </c>
       <c r="V26" s="3">
         <v>800</v>
@@ -2232,13 +2284,13 @@
         <v>800</v>
       </c>
       <c r="X26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>100</v>
@@ -2247,45 +2299,48 @@
         <v>100</v>
       </c>
       <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1000</v>
       </c>
       <c r="N27" s="3">
         <v>1000</v>
@@ -2294,22 +2349,22 @@
         <v>1000</v>
       </c>
       <c r="P27" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q27" s="3">
         <v>800</v>
       </c>
       <c r="R27" s="3">
+        <v>800</v>
+      </c>
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>800</v>
       </c>
       <c r="V27" s="3">
         <v>800</v>
@@ -2318,13 +2373,13 @@
         <v>800</v>
       </c>
       <c r="X27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>100</v>
@@ -2333,13 +2388,16 @@
         <v>100</v>
       </c>
       <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,8 +2535,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2492,8 +2553,8 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,64 +2749,67 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2500</v>
       </c>
       <c r="F32" s="3">
         <v>2500</v>
       </c>
       <c r="G32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2200</v>
       </c>
       <c r="J32" s="3">
         <v>2200</v>
       </c>
       <c r="K32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2000</v>
       </c>
       <c r="P32" s="3">
         <v>2000</v>
       </c>
       <c r="Q32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="R32" s="3">
         <v>1900</v>
       </c>
       <c r="S32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2000</v>
       </c>
       <c r="V32" s="3">
         <v>2000</v>
@@ -2751,57 +2821,60 @@
         <v>2000</v>
       </c>
       <c r="Y32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1000</v>
       </c>
       <c r="N33" s="3">
         <v>1000</v>
@@ -2810,22 +2883,22 @@
         <v>1000</v>
       </c>
       <c r="P33" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q33" s="3">
         <v>800</v>
       </c>
       <c r="R33" s="3">
+        <v>800</v>
+      </c>
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>800</v>
       </c>
       <c r="V33" s="3">
         <v>800</v>
@@ -2834,13 +2907,13 @@
         <v>800</v>
       </c>
       <c r="X33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>100</v>
@@ -2849,13 +2922,16 @@
         <v>100</v>
       </c>
       <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,40 +3016,43 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1000</v>
       </c>
       <c r="N35" s="3">
         <v>1000</v>
@@ -2982,22 +3061,22 @@
         <v>1000</v>
       </c>
       <c r="P35" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q35" s="3">
         <v>800</v>
       </c>
       <c r="R35" s="3">
+        <v>800</v>
+      </c>
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>800</v>
       </c>
       <c r="V35" s="3">
         <v>800</v>
@@ -3006,13 +3085,13 @@
         <v>800</v>
       </c>
       <c r="X35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>100</v>
@@ -3021,104 +3100,110 @@
         <v>100</v>
       </c>
       <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E41" s="3">
         <v>40800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>120400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>162500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>20300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3287,48 +3377,48 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>48800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>49400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>17800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>16100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3347,14 +3437,17 @@
       <c r="AB42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>8300</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3803,57 +3911,57 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>9400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>8700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>7500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>62300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>57400</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3863,19 +3971,22 @@
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>6700</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
@@ -3884,22 +3995,22 @@
         <v>1800</v>
       </c>
       <c r="G49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2000</v>
+      <c r="I49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>2000</v>
       </c>
       <c r="L49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M49" s="3">
         <v>2100</v>
@@ -3908,7 +4019,7 @@
         <v>2100</v>
       </c>
       <c r="O49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="P49" s="3">
         <v>2200</v>
@@ -3917,7 +4028,7 @@
         <v>2200</v>
       </c>
       <c r="R49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="S49" s="3">
         <v>2300</v>
@@ -3926,23 +4037,23 @@
         <v>2300</v>
       </c>
       <c r="U49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="V49" s="3">
         <v>2400</v>
       </c>
       <c r="W49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X49" s="3">
         <v>66100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>56300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4147,57 +4267,57 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>5900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2500</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4207,14 +4327,17 @@
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>3400</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>510600</v>
+      </c>
+      <c r="E54" s="3">
         <v>500200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>471600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>473800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>460300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>457900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>420700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>423300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>418300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>406300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>402200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>414800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>377200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>352600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>360000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>368700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>353300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>345000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>354000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2481700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2299400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>356000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>333700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>227900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>223900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>219500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4641,36 +4778,36 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4686,8 +4823,8 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,19 +4933,22 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E61" s="3">
         <v>11000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
@@ -4814,7 +4957,7 @@
         <v>1500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4826,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4838,11 +4981,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4850,20 +4993,20 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>2500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>75200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5252,48 +5410,48 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>363500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>314900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>311200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>2195900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2040900</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>5</v>
       </c>
@@ -5303,14 +5461,17 @@
       <c r="AB66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>199700</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5705,48 +5879,48 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>35200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>30800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>27500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>24500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5765,14 +5939,17 @@
       <c r="AB72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>21900</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E76" s="3">
         <v>49400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>42800</v>
       </c>
       <c r="M76" s="3">
         <v>42800</v>
       </c>
       <c r="N76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="O76" s="3">
         <v>42700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>285800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>258500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>32000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>19800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,131 +6390,137 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1000</v>
       </c>
       <c r="N81" s="3">
         <v>1000</v>
@@ -6334,22 +6529,22 @@
         <v>1000</v>
       </c>
       <c r="P81" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q81" s="3">
         <v>800</v>
       </c>
       <c r="R81" s="3">
+        <v>800</v>
+      </c>
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>800</v>
       </c>
       <c r="V81" s="3">
         <v>800</v>
@@ -6358,13 +6553,13 @@
         <v>800</v>
       </c>
       <c r="X81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>100</v>
@@ -6373,13 +6568,16 @@
         <v>100</v>
       </c>
       <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
